--- a/eis_dataset_backup.xlsx
+++ b/eis_dataset_backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milessmith/Documents/GitHub/mit-tri-robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4D57801-B849-724C-8F74-B738F5B56653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B79290B-EA8F-C943-B364-92B979D1ADB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="11">
   <si>
-    <t>Data</t>
+    <t>Date</t>
   </si>
   <si>
     <t>Name</t>
@@ -31,13 +31,28 @@
     <t>Sample Number</t>
   </si>
   <si>
+    <t>Concentration (mol/kg)</t>
+  </si>
+  <si>
     <t>Plate Number</t>
   </si>
   <si>
-    <t>Temperature</t>
+    <t>Conductivity (S/cm)</t>
   </si>
   <si>
-    <t>Conductivity</t>
+    <t>LiClO4-PEO</t>
+  </si>
+  <si>
+    <t>LiTFSI-LiClO4-PEO</t>
+  </si>
+  <si>
+    <t>LiTFSI-PEO</t>
+  </si>
+  <si>
+    <t>LiTFSI-LiFSI-PEO</t>
+  </si>
+  <si>
+    <t>Temperature (℃)</t>
   </si>
 </sst>
 </file>
@@ -377,15 +392,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,7 +424,3575 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>20231114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>104150</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <v>9.3012930847666251E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20231113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1.5</v>
+      </c>
+      <c r="E3">
+        <v>104150</v>
+      </c>
+      <c r="F3">
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <v>5.5233900644977147E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20231113</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1.5</v>
+      </c>
+      <c r="E4">
+        <v>104150</v>
+      </c>
+      <c r="F4">
+        <v>70</v>
+      </c>
+      <c r="G4">
+        <v>7.4238805194124703E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20231114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>104150</v>
+      </c>
+      <c r="F5">
+        <v>70</v>
+      </c>
+      <c r="G5">
+        <v>2.011490425361849E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20231113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>2.25</v>
+      </c>
+      <c r="E6">
+        <v>104150</v>
+      </c>
+      <c r="F6">
+        <v>70</v>
+      </c>
+      <c r="G6">
+        <v>5.0628559416565307E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>20231113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1.5</v>
+      </c>
+      <c r="E7">
+        <v>104150</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+      <c r="G7">
+        <v>6.1099071864913725E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>20231113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>2.25</v>
+      </c>
+      <c r="E8">
+        <v>104150</v>
+      </c>
+      <c r="F8">
+        <v>70</v>
+      </c>
+      <c r="G8">
+        <v>6.235258455861915E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20231113</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>2.25</v>
+      </c>
+      <c r="E9">
+        <v>104150</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>3.3695675233291652E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20231113</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>2.25</v>
+      </c>
+      <c r="E10">
+        <v>104150</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>2.781028381761755E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20231113</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1.5</v>
+      </c>
+      <c r="E11">
+        <v>104150</v>
+      </c>
+      <c r="F11">
+        <v>70</v>
+      </c>
+      <c r="G11">
+        <v>7.8448889602799701E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20231113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1.5</v>
+      </c>
+      <c r="E12">
+        <v>104150</v>
+      </c>
+      <c r="F12">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>1.5353566219633329E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20231113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>2.25</v>
+      </c>
+      <c r="E13">
+        <v>104150</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>1.286585737964082E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20231113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>2.25</v>
+      </c>
+      <c r="E14">
+        <v>104150</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>1.5808250291518521E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20231113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1.5</v>
+      </c>
+      <c r="E15">
+        <v>104150</v>
+      </c>
+      <c r="F15">
+        <v>80</v>
+      </c>
+      <c r="G15">
+        <v>1.493616031443288E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20231113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>2.25</v>
+      </c>
+      <c r="E16">
+        <v>104150</v>
+      </c>
+      <c r="F16">
+        <v>80</v>
+      </c>
+      <c r="G16">
+        <v>7.3407221059009555E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20231114</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>104150</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>1.359426842996792E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20231113</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>2.25</v>
+      </c>
+      <c r="E18">
+        <v>104150</v>
+      </c>
+      <c r="F18">
+        <v>40</v>
+      </c>
+      <c r="G18">
+        <v>6.3338312889310309E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20231113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1.5</v>
+      </c>
+      <c r="E19">
+        <v>104150</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>3.9881807849294377E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20231113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>2.25</v>
+      </c>
+      <c r="E20">
+        <v>104150</v>
+      </c>
+      <c r="F20">
+        <v>40</v>
+      </c>
+      <c r="G20">
+        <v>5.1192751490758626E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20231113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>1.5</v>
+      </c>
+      <c r="E21">
+        <v>104150</v>
+      </c>
+      <c r="F21">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <v>3.8533979650914303E-8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20231113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>2.25</v>
+      </c>
+      <c r="E22">
+        <v>104150</v>
+      </c>
+      <c r="F22">
+        <v>80</v>
+      </c>
+      <c r="G22">
+        <v>8.3600405527118409E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20231113</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>1.5</v>
+      </c>
+      <c r="E23">
+        <v>104150</v>
+      </c>
+      <c r="F23">
+        <v>80</v>
+      </c>
+      <c r="G23">
+        <v>8.7373352418426478E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20231114</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>104150</v>
+      </c>
+      <c r="F24">
+        <v>40</v>
+      </c>
+      <c r="G24">
+        <v>1.173669540351151E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>20231113</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>2.25</v>
+      </c>
+      <c r="E25">
+        <v>104150</v>
+      </c>
+      <c r="F25">
+        <v>25</v>
+      </c>
+      <c r="G25">
+        <v>5.6109316786502171E-7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>20231113</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>2.25</v>
+      </c>
+      <c r="E26">
+        <v>104150</v>
+      </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <v>3.8874513736684978E-7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>20231113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>1.5</v>
+      </c>
+      <c r="E27">
+        <v>104150</v>
+      </c>
+      <c r="F27">
+        <v>40</v>
+      </c>
+      <c r="G27">
+        <v>1.0170999646978771E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>20231114</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>104150</v>
+      </c>
+      <c r="F28">
+        <v>80</v>
+      </c>
+      <c r="G28">
+        <v>3.8094106961097577E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>20231113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>1.5</v>
+      </c>
+      <c r="E29">
+        <v>104150</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>2.9498112652746941E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20231114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>104150</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <v>3.6401821788945429E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>20231113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>104149</v>
+      </c>
+      <c r="F31">
+        <v>70</v>
+      </c>
+      <c r="G31">
+        <v>5.9288385538613972E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20231113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>2.25</v>
+      </c>
+      <c r="E32">
+        <v>104149</v>
+      </c>
+      <c r="F32">
+        <v>70</v>
+      </c>
+      <c r="G32">
+        <v>7.7791830635967751E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20231113</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>2.25</v>
+      </c>
+      <c r="E33">
+        <v>104149</v>
+      </c>
+      <c r="F33">
+        <v>60</v>
+      </c>
+      <c r="G33">
+        <v>5.9978988195483668E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>20231113</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>13</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>104149</v>
+      </c>
+      <c r="F34">
+        <v>60</v>
+      </c>
+      <c r="G34">
+        <v>3.2419509989760887E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>20231113</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>1.5</v>
+      </c>
+      <c r="E35">
+        <v>104149</v>
+      </c>
+      <c r="F35">
+        <v>60</v>
+      </c>
+      <c r="G35">
+        <v>7.2270840713862131E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>20231113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>104149</v>
+      </c>
+      <c r="F36">
+        <v>70</v>
+      </c>
+      <c r="G36">
+        <v>6.5368903857141735E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>20231113</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>2.25</v>
+      </c>
+      <c r="E37">
+        <v>104149</v>
+      </c>
+      <c r="F37">
+        <v>70</v>
+      </c>
+      <c r="G37">
+        <v>8.0038148200700256E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>20231113</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>1.5</v>
+      </c>
+      <c r="E38">
+        <v>104149</v>
+      </c>
+      <c r="F38">
+        <v>60</v>
+      </c>
+      <c r="G38">
+        <v>8.7151006196573128E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>20231113</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>1.5</v>
+      </c>
+      <c r="E39">
+        <v>104149</v>
+      </c>
+      <c r="F39">
+        <v>70</v>
+      </c>
+      <c r="G39">
+        <v>8.5854221847665762E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>20231113</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>2.25</v>
+      </c>
+      <c r="E40">
+        <v>104149</v>
+      </c>
+      <c r="F40">
+        <v>60</v>
+      </c>
+      <c r="G40">
+        <v>5.9727081567966017E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>20231113</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>104149</v>
+      </c>
+      <c r="F41">
+        <v>60</v>
+      </c>
+      <c r="G41">
+        <v>3.6068254427708652E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>20231113</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>1.5</v>
+      </c>
+      <c r="E42">
+        <v>104149</v>
+      </c>
+      <c r="F42">
+        <v>70</v>
+      </c>
+      <c r="G42">
+        <v>8.4733227084427383E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>20231113</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>1.5</v>
+      </c>
+      <c r="E43">
+        <v>104149</v>
+      </c>
+      <c r="F43">
+        <v>80</v>
+      </c>
+      <c r="G43">
+        <v>1.0408005973810821E-11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>20231113</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>1.5</v>
+      </c>
+      <c r="E44">
+        <v>104149</v>
+      </c>
+      <c r="F44">
+        <v>80</v>
+      </c>
+      <c r="G44">
+        <v>1.7594282163979771E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>20231113</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>104149</v>
+      </c>
+      <c r="F45">
+        <v>25</v>
+      </c>
+      <c r="G45">
+        <v>1.0651205561307671E-6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>20231113</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>1.5</v>
+      </c>
+      <c r="E46">
+        <v>104149</v>
+      </c>
+      <c r="F46">
+        <v>40</v>
+      </c>
+      <c r="G46">
+        <v>1.32577700009559E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>20231113</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>2.25</v>
+      </c>
+      <c r="E47">
+        <v>104149</v>
+      </c>
+      <c r="F47">
+        <v>25</v>
+      </c>
+      <c r="G47">
+        <v>3.3777271446372839E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>20231113</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>2.25</v>
+      </c>
+      <c r="E48">
+        <v>104149</v>
+      </c>
+      <c r="F48">
+        <v>50</v>
+      </c>
+      <c r="G48">
+        <v>3.205735286889904E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>20231113</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>104149</v>
+      </c>
+      <c r="F49">
+        <v>50</v>
+      </c>
+      <c r="G49">
+        <v>1.76457073743689E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>20231113</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>1.5</v>
+      </c>
+      <c r="E50">
+        <v>104149</v>
+      </c>
+      <c r="F50">
+        <v>40</v>
+      </c>
+      <c r="G50">
+        <v>7.9811595681565586E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>20231113</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>1.5</v>
+      </c>
+      <c r="E51">
+        <v>104149</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51">
+        <v>4.9113359357897188E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>20231113</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>104149</v>
+      </c>
+      <c r="F52">
+        <v>40</v>
+      </c>
+      <c r="G52">
+        <v>7.4276371424410993E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>20231113</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53">
+        <v>2.25</v>
+      </c>
+      <c r="E53">
+        <v>104149</v>
+      </c>
+      <c r="F53">
+        <v>40</v>
+      </c>
+      <c r="G53">
+        <v>1.5309370303258911E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>20231113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>1.5</v>
+      </c>
+      <c r="E54">
+        <v>104149</v>
+      </c>
+      <c r="F54">
+        <v>50</v>
+      </c>
+      <c r="G54">
+        <v>5.0633035529489278E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>20231113</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>104149</v>
+      </c>
+      <c r="F55">
+        <v>80</v>
+      </c>
+      <c r="G55">
+        <v>8.2489748559371555E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>20231113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>2.25</v>
+      </c>
+      <c r="E56">
+        <v>104149</v>
+      </c>
+      <c r="F56">
+        <v>80</v>
+      </c>
+      <c r="G56">
+        <v>8.4514974486779408E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>20231113</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>104149</v>
+      </c>
+      <c r="F57">
+        <v>25</v>
+      </c>
+      <c r="G57">
+        <v>1.4074830773398639E-6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>20231113</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <v>2.25</v>
+      </c>
+      <c r="E58">
+        <v>104149</v>
+      </c>
+      <c r="F58">
+        <v>25</v>
+      </c>
+      <c r="G58">
+        <v>3.545298782398101E-6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>20231113</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>9</v>
+      </c>
+      <c r="D59">
+        <v>2.25</v>
+      </c>
+      <c r="E59">
+        <v>104149</v>
+      </c>
+      <c r="F59">
+        <v>50</v>
+      </c>
+      <c r="G59">
+        <v>3.1642398037100228E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>20231113</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>13</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>104149</v>
+      </c>
+      <c r="F60">
+        <v>50</v>
+      </c>
+      <c r="G60">
+        <v>1.5456129571407602E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>20231113</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>13</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>104149</v>
+      </c>
+      <c r="F61">
+        <v>80</v>
+      </c>
+      <c r="G61">
+        <v>7.4694331532938404E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>20231113</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>2.25</v>
+      </c>
+      <c r="E62">
+        <v>104149</v>
+      </c>
+      <c r="F62">
+        <v>80</v>
+      </c>
+      <c r="G62">
+        <v>2.765011945291832E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>20231113</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>13</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>104149</v>
+      </c>
+      <c r="F63">
+        <v>40</v>
+      </c>
+      <c r="G63">
+        <v>6.2886126948455929E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>20231113</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>1.5</v>
+      </c>
+      <c r="E64">
+        <v>104149</v>
+      </c>
+      <c r="F64">
+        <v>25</v>
+      </c>
+      <c r="G64">
+        <v>6.8668422968047609E-7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>20231113</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>2.25</v>
+      </c>
+      <c r="E65">
+        <v>104149</v>
+      </c>
+      <c r="F65">
+        <v>40</v>
+      </c>
+      <c r="G65">
+        <v>1.487425467002378E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>20231113</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>1.5</v>
+      </c>
+      <c r="E66">
+        <v>104149</v>
+      </c>
+      <c r="F66">
+        <v>25</v>
+      </c>
+      <c r="G66">
+        <v>5.7631937660471268E-7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>20231112</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1.5</v>
+      </c>
+      <c r="E67">
+        <v>104148</v>
+      </c>
+      <c r="F67">
+        <v>50</v>
+      </c>
+      <c r="G67">
+        <v>8.7023216348176269E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>20231113</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>13</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>104148</v>
+      </c>
+      <c r="F68">
+        <v>50</v>
+      </c>
+      <c r="G68">
+        <v>6.6165142363085067E-5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>20231113</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>104148</v>
+      </c>
+      <c r="F69">
+        <v>50</v>
+      </c>
+      <c r="G69">
+        <v>5.0320943586290692E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>20231113</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="D70">
+        <v>2.25</v>
+      </c>
+      <c r="E70">
+        <v>104148</v>
+      </c>
+      <c r="F70">
+        <v>50</v>
+      </c>
+      <c r="G70">
+        <v>6.2566128322248888E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>20231113</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>1.5</v>
+      </c>
+      <c r="E71">
+        <v>104148</v>
+      </c>
+      <c r="F71">
+        <v>25</v>
+      </c>
+      <c r="G71">
+        <v>2.7349775064872642E-6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>20231113</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>12</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>104148</v>
+      </c>
+      <c r="F72">
+        <v>80</v>
+      </c>
+      <c r="G72">
+        <v>3.9114141962152759E-5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>20231113</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73">
+        <v>2.25</v>
+      </c>
+      <c r="E73">
+        <v>104148</v>
+      </c>
+      <c r="F73">
+        <v>80</v>
+      </c>
+      <c r="G73">
+        <v>2.8010328049288957E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>20231113</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>13</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>104148</v>
+      </c>
+      <c r="F74">
+        <v>80</v>
+      </c>
+      <c r="G74">
+        <v>5.1893850360577248E-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>20231112</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1.5</v>
+      </c>
+      <c r="E75">
+        <v>104148</v>
+      </c>
+      <c r="F75">
+        <v>80</v>
+      </c>
+      <c r="G75">
+        <v>7.1579230025708789E-12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>20231113</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>8</v>
+      </c>
+      <c r="D76">
+        <v>2.25</v>
+      </c>
+      <c r="E76">
+        <v>104148</v>
+      </c>
+      <c r="F76">
+        <v>40</v>
+      </c>
+      <c r="G76">
+        <v>3.417657884832842E-5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>20231113</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>12</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>104148</v>
+      </c>
+      <c r="F77">
+        <v>40</v>
+      </c>
+      <c r="G77">
+        <v>2.4710539414373051E-5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>20231112</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1.5</v>
+      </c>
+      <c r="E78">
+        <v>104148</v>
+      </c>
+      <c r="F78">
+        <v>40</v>
+      </c>
+      <c r="G78">
+        <v>6.6441490682129243E-5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>20231113</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>1.5</v>
+      </c>
+      <c r="E79">
+        <v>104148</v>
+      </c>
+      <c r="F79">
+        <v>50</v>
+      </c>
+      <c r="G79">
+        <v>6.2403206327796894E-5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>20231113</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>8</v>
+      </c>
+      <c r="D80">
+        <v>2.25</v>
+      </c>
+      <c r="E80">
+        <v>104148</v>
+      </c>
+      <c r="F80">
+        <v>25</v>
+      </c>
+      <c r="G80">
+        <v>9.7914051768123064E-6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>20231113</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>12</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>104148</v>
+      </c>
+      <c r="F81">
+        <v>25</v>
+      </c>
+      <c r="G81">
+        <v>6.039203259044707E-6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>20231113</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>13</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>104148</v>
+      </c>
+      <c r="F82">
+        <v>25</v>
+      </c>
+      <c r="G82">
+        <v>7.2404831871958523E-6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>20231113</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>1.5</v>
+      </c>
+      <c r="E83">
+        <v>104148</v>
+      </c>
+      <c r="F83">
+        <v>60</v>
+      </c>
+      <c r="G83">
+        <v>7.849396497613781E-5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>20231112</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1.5</v>
+      </c>
+      <c r="E84">
+        <v>104148</v>
+      </c>
+      <c r="F84">
+        <v>25</v>
+      </c>
+      <c r="G84">
+        <v>4.092026724368599E-6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>20231113</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>1.5</v>
+      </c>
+      <c r="E85">
+        <v>104148</v>
+      </c>
+      <c r="F85">
+        <v>80</v>
+      </c>
+      <c r="G85">
+        <v>1.33851020001094E-6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>20231113</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>1.5</v>
+      </c>
+      <c r="E86">
+        <v>104148</v>
+      </c>
+      <c r="F86">
+        <v>70</v>
+      </c>
+      <c r="G86">
+        <v>4.2531692969387178E-5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>20231113</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>1.5</v>
+      </c>
+      <c r="E87">
+        <v>104148</v>
+      </c>
+      <c r="F87">
+        <v>40</v>
+      </c>
+      <c r="G87">
+        <v>2.8674572394698131E-5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>20231113</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>1.5</v>
+      </c>
+      <c r="E88">
+        <v>104148</v>
+      </c>
+      <c r="F88">
+        <v>80</v>
+      </c>
+      <c r="G88">
+        <v>8.7023216348176269E-5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>20231113</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>1.5</v>
+      </c>
+      <c r="E89">
+        <v>104148</v>
+      </c>
+      <c r="F89">
+        <v>70</v>
+      </c>
+      <c r="G89">
+        <v>6.6165142363085067E-5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>20231113</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>1.5</v>
+      </c>
+      <c r="E90">
+        <v>104148</v>
+      </c>
+      <c r="F90">
+        <v>40</v>
+      </c>
+      <c r="G90">
+        <v>5.0320943586290692E-5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>20231113</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>1.5</v>
+      </c>
+      <c r="E91">
+        <v>104148</v>
+      </c>
+      <c r="F91">
+        <v>50</v>
+      </c>
+      <c r="G91">
+        <v>6.2566128322248888E-5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>20231113</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>1.5</v>
+      </c>
+      <c r="E92">
+        <v>104148</v>
+      </c>
+      <c r="F92">
+        <v>60</v>
+      </c>
+      <c r="G92">
+        <v>2.7349775064872642E-6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>20231113</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <v>2.25</v>
+      </c>
+      <c r="E93">
+        <v>104148</v>
+      </c>
+      <c r="F93">
+        <v>70</v>
+      </c>
+      <c r="G93">
+        <v>3.9114141962152759E-5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>20231113</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>12</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>104148</v>
+      </c>
+      <c r="F94">
+        <v>70</v>
+      </c>
+      <c r="G94">
+        <v>2.8010328049288957E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>20231113</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>13</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95">
+        <v>104148</v>
+      </c>
+      <c r="F95">
+        <v>70</v>
+      </c>
+      <c r="G95">
+        <v>5.1893850360577248E-5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>20231112</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1.5</v>
+      </c>
+      <c r="E96">
+        <v>104148</v>
+      </c>
+      <c r="F96">
+        <v>70</v>
+      </c>
+      <c r="G96">
+        <v>7.1579230025708789E-12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>20231112</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1.5</v>
+      </c>
+      <c r="E97">
+        <v>104148</v>
+      </c>
+      <c r="F97">
+        <v>60</v>
+      </c>
+      <c r="G97">
+        <v>3.417657884832842E-5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>20231113</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>1.5</v>
+      </c>
+      <c r="E98">
+        <v>104148</v>
+      </c>
+      <c r="F98">
+        <v>25</v>
+      </c>
+      <c r="G98">
+        <v>2.4710539414373051E-5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>20231113</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <v>13</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>104148</v>
+      </c>
+      <c r="F99">
+        <v>60</v>
+      </c>
+      <c r="G99">
+        <v>6.6441490682129243E-5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>20231113</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>12</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>104148</v>
+      </c>
+      <c r="F100">
+        <v>60</v>
+      </c>
+      <c r="G100">
+        <v>6.2403206327796894E-5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>20231113</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>8</v>
+      </c>
+      <c r="D101">
+        <v>2.25</v>
+      </c>
+      <c r="E101">
+        <v>104148</v>
+      </c>
+      <c r="F101">
+        <v>60</v>
+      </c>
+      <c r="G101">
+        <v>9.7914051768123064E-6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>20231001</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>2.75</v>
+      </c>
+      <c r="E102">
+        <v>104023</v>
+      </c>
+      <c r="F102">
+        <v>25</v>
+      </c>
+      <c r="G102">
+        <v>8.6024436113512253E-7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>20231001</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>104023</v>
+      </c>
+      <c r="F103">
+        <v>50</v>
+      </c>
+      <c r="G103">
+        <v>2.6964631080636049E-6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>20231001</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>2.75</v>
+      </c>
+      <c r="E104">
+        <v>104023</v>
+      </c>
+      <c r="F104">
+        <v>50</v>
+      </c>
+      <c r="G104">
+        <v>1.132764011652351E-5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>20231001</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>8</v>
+      </c>
+      <c r="D105">
+        <v>3.75</v>
+      </c>
+      <c r="E105">
+        <v>104023</v>
+      </c>
+      <c r="F105">
+        <v>75</v>
+      </c>
+      <c r="G105">
+        <v>6.1562961902913445E-5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>20231002</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>13</v>
+      </c>
+      <c r="D106">
+        <v>7</v>
+      </c>
+      <c r="E106">
+        <v>104023</v>
+      </c>
+      <c r="F106">
+        <v>75</v>
+      </c>
+      <c r="G106">
+        <v>2.4794826033933749E-5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>20231001</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107">
+        <v>104023</v>
+      </c>
+      <c r="F107">
+        <v>25</v>
+      </c>
+      <c r="G107">
+        <v>1.6457042197958801E-7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>20231002</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>13</v>
+      </c>
+      <c r="D108">
+        <v>7</v>
+      </c>
+      <c r="E108">
+        <v>104023</v>
+      </c>
+      <c r="F108">
+        <v>50</v>
+      </c>
+      <c r="G108">
+        <v>3.307033480351809E-6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>20231001</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109">
+        <v>8</v>
+      </c>
+      <c r="D109">
+        <v>3.75</v>
+      </c>
+      <c r="E109">
+        <v>104023</v>
+      </c>
+      <c r="F109">
+        <v>50</v>
+      </c>
+      <c r="G109">
+        <v>1.1511708887344691E-5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>20231001</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>2.75</v>
+      </c>
+      <c r="E110">
+        <v>104023</v>
+      </c>
+      <c r="F110">
+        <v>75</v>
+      </c>
+      <c r="G110">
+        <v>5.6167358689782397E-5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>20231002</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111">
+        <v>13</v>
+      </c>
+      <c r="D111">
+        <v>7</v>
+      </c>
+      <c r="E111">
+        <v>104023</v>
+      </c>
+      <c r="F111">
+        <v>25</v>
+      </c>
+      <c r="G111">
+        <v>1.5863417900434031E-7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>20231001</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <v>104023</v>
+      </c>
+      <c r="F112">
+        <v>75</v>
+      </c>
+      <c r="G112">
+        <v>1.7077029827898251E-5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>20231001</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113">
+        <v>8</v>
+      </c>
+      <c r="D113">
+        <v>3.75</v>
+      </c>
+      <c r="E113">
+        <v>104023</v>
+      </c>
+      <c r="F113">
+        <v>25</v>
+      </c>
+      <c r="G113">
+        <v>7.2264243114255209E-7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>20231102</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114">
+        <v>9</v>
+      </c>
+      <c r="D114">
+        <v>0.5</v>
+      </c>
+      <c r="E114">
+        <v>104107</v>
+      </c>
+      <c r="F114">
+        <v>50</v>
+      </c>
+      <c r="G114">
+        <v>2.9263781741192989E-5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>20231102</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115">
+        <v>13</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>104107</v>
+      </c>
+      <c r="F115">
+        <v>50</v>
+      </c>
+      <c r="G115">
+        <v>6.4184079754148673E-5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>20231102</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116">
+        <v>12</v>
+      </c>
+      <c r="D116">
+        <v>0.75</v>
+      </c>
+      <c r="E116">
+        <v>104107</v>
+      </c>
+      <c r="F116">
+        <v>50</v>
+      </c>
+      <c r="G116">
+        <v>2.080573070199484E-5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>20231102</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117">
+        <v>13</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>104107</v>
+      </c>
+      <c r="F117">
+        <v>25</v>
+      </c>
+      <c r="G117">
+        <v>4.701073105855885E-7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>20231102</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118">
+        <v>9</v>
+      </c>
+      <c r="D118">
+        <v>0.5</v>
+      </c>
+      <c r="E118">
+        <v>104107</v>
+      </c>
+      <c r="F118">
+        <v>25</v>
+      </c>
+      <c r="G118">
+        <v>6.3862400291776046E-7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>20231102</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>0.25</v>
+      </c>
+      <c r="E119">
+        <v>104107</v>
+      </c>
+      <c r="F119">
+        <v>75</v>
+      </c>
+      <c r="G119">
+        <v>7.6260355887735587E-5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>20231102</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120">
+        <v>8</v>
+      </c>
+      <c r="D120">
+        <v>0.5</v>
+      </c>
+      <c r="E120">
+        <v>104107</v>
+      </c>
+      <c r="F120">
+        <v>75</v>
+      </c>
+      <c r="G120">
+        <v>7.5201803986189539E-6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>20231102</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121">
+        <v>12</v>
+      </c>
+      <c r="D121">
+        <v>0.75</v>
+      </c>
+      <c r="E121">
+        <v>104107</v>
+      </c>
+      <c r="F121">
+        <v>75</v>
+      </c>
+      <c r="G121">
+        <v>1.054828534743793E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>20231102</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122">
+        <v>13</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>104107</v>
+      </c>
+      <c r="F122">
+        <v>75</v>
+      </c>
+      <c r="G122">
+        <v>8.6382200116526298E-7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>20231102</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123">
+        <v>9</v>
+      </c>
+      <c r="D123">
+        <v>0.5</v>
+      </c>
+      <c r="E123">
+        <v>104107</v>
+      </c>
+      <c r="F123">
+        <v>75</v>
+      </c>
+      <c r="G123">
+        <v>3.185033502091818E-12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>20231102</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124">
+        <v>9</v>
+      </c>
+      <c r="D124">
+        <v>1.75</v>
+      </c>
+      <c r="E124">
+        <v>104108</v>
+      </c>
+      <c r="F124">
+        <v>75</v>
+      </c>
+      <c r="G124">
+        <v>7.7103830250701682E-5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>20231102</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>1.5</v>
+      </c>
+      <c r="E125">
+        <v>104108</v>
+      </c>
+      <c r="F125">
+        <v>75</v>
+      </c>
+      <c r="G125">
+        <v>3.5371246941154679E-6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>20231102</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126">
+        <v>8</v>
+      </c>
+      <c r="D126">
+        <v>1.75</v>
+      </c>
+      <c r="E126">
+        <v>104108</v>
+      </c>
+      <c r="F126">
+        <v>75</v>
+      </c>
+      <c r="G126">
+        <v>7.728915377172216E-5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>20231102</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127">
+        <v>12</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>104108</v>
+      </c>
+      <c r="F127">
+        <v>75</v>
+      </c>
+      <c r="G127">
+        <v>6.6346932990470449E-5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>20231102</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+      <c r="D128">
+        <v>1.5</v>
+      </c>
+      <c r="E128">
+        <v>104108</v>
+      </c>
+      <c r="F128">
+        <v>75</v>
+      </c>
+      <c r="G128">
+        <v>5.7005529828883797E-5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>20231102</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129">
+        <v>4</v>
+      </c>
+      <c r="D129">
+        <v>1.5</v>
+      </c>
+      <c r="E129">
+        <v>104108</v>
+      </c>
+      <c r="F129">
+        <v>25</v>
+      </c>
+      <c r="G129">
+        <v>5.4924173467664587E-7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>20231102</v>
+      </c>
+      <c r="B130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+      <c r="D130">
+        <v>1.5</v>
+      </c>
+      <c r="E130">
+        <v>104108</v>
+      </c>
+      <c r="F130">
+        <v>50</v>
+      </c>
+      <c r="G130">
+        <v>5.4215330091315828E-5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>20231102</v>
+      </c>
+      <c r="B131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131">
+        <v>8</v>
+      </c>
+      <c r="D131">
+        <v>1.75</v>
+      </c>
+      <c r="E131">
+        <v>104108</v>
+      </c>
+      <c r="F131">
+        <v>25</v>
+      </c>
+      <c r="G131">
+        <v>5.2790324933052177E-7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>20231102</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132">
+        <v>12</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>104108</v>
+      </c>
+      <c r="F132">
+        <v>50</v>
+      </c>
+      <c r="G132">
+        <v>2.0485188135778821E-5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>20231102</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133">
+        <v>9</v>
+      </c>
+      <c r="D133">
+        <v>1.75</v>
+      </c>
+      <c r="E133">
+        <v>104108</v>
+      </c>
+      <c r="F133">
+        <v>25</v>
+      </c>
+      <c r="G133">
+        <v>5.5279113805761048E-7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>20231102</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134">
+        <v>8</v>
+      </c>
+      <c r="D134">
+        <v>1.75</v>
+      </c>
+      <c r="E134">
+        <v>104108</v>
+      </c>
+      <c r="F134">
+        <v>50</v>
+      </c>
+      <c r="G134">
+        <v>2.657901098780997E-5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>20231102</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135">
+        <v>5</v>
+      </c>
+      <c r="D135">
+        <v>1.5</v>
+      </c>
+      <c r="E135">
+        <v>104108</v>
+      </c>
+      <c r="F135">
+        <v>25</v>
+      </c>
+      <c r="G135">
+        <v>4.3941016885350451E-7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>20231102</v>
+      </c>
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136">
+        <v>4</v>
+      </c>
+      <c r="D136">
+        <v>1.5</v>
+      </c>
+      <c r="E136">
+        <v>104108</v>
+      </c>
+      <c r="F136">
+        <v>50</v>
+      </c>
+      <c r="G136">
+        <v>5.0185718812182067E-5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>20231102</v>
+      </c>
+      <c r="B137" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137">
+        <v>9</v>
+      </c>
+      <c r="D137">
+        <v>1.75</v>
+      </c>
+      <c r="E137">
+        <v>104108</v>
+      </c>
+      <c r="F137">
+        <v>50</v>
+      </c>
+      <c r="G137">
+        <v>2.9061442231898831E-5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>20231102</v>
+      </c>
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138">
+        <v>12</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>104108</v>
+      </c>
+      <c r="F138">
+        <v>25</v>
+      </c>
+      <c r="G138">
+        <v>5.8408112410889114E-7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>20231102</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>2.5</v>
+      </c>
+      <c r="E139">
+        <v>104109</v>
+      </c>
+      <c r="F139">
+        <v>75</v>
+      </c>
+      <c r="G139">
+        <v>5.0173578201416883E-5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>20231103</v>
+      </c>
+      <c r="B140" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140">
+        <v>12</v>
+      </c>
+      <c r="D140">
+        <v>3.5</v>
+      </c>
+      <c r="E140">
+        <v>104109</v>
+      </c>
+      <c r="F140">
+        <v>25</v>
+      </c>
+      <c r="G140">
+        <v>2.631199121802784E-8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>20231103</v>
+      </c>
+      <c r="B141" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141">
+        <v>13</v>
+      </c>
+      <c r="D141">
+        <v>4</v>
+      </c>
+      <c r="E141">
+        <v>104109</v>
+      </c>
+      <c r="F141">
+        <v>75</v>
+      </c>
+      <c r="G141">
+        <v>9.5674558275940342E-7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>20231102</v>
+      </c>
+      <c r="B142" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142">
+        <v>4</v>
+      </c>
+      <c r="D142">
+        <v>2.75</v>
+      </c>
+      <c r="E142">
+        <v>104109</v>
+      </c>
+      <c r="F142">
+        <v>25</v>
+      </c>
+      <c r="G142">
+        <v>9.2260731941458021E-7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>20231102</v>
+      </c>
+      <c r="B143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143">
+        <v>8</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143">
+        <v>104109</v>
+      </c>
+      <c r="F143">
+        <v>75</v>
+      </c>
+      <c r="G143">
+        <v>1.6793721116517289E-5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>20231102</v>
+      </c>
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144">
+        <v>5</v>
+      </c>
+      <c r="D144">
+        <v>2.75</v>
+      </c>
+      <c r="E144">
+        <v>104109</v>
+      </c>
+      <c r="F144">
+        <v>75</v>
+      </c>
+      <c r="G144">
+        <v>6.3918998665530429E-6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>20231103</v>
+      </c>
+      <c r="B145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145">
+        <v>12</v>
+      </c>
+      <c r="D145">
+        <v>3.5</v>
+      </c>
+      <c r="E145">
+        <v>104109</v>
+      </c>
+      <c r="F145">
+        <v>50</v>
+      </c>
+      <c r="G145">
+        <v>4.9573232540082988E-7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>20231103</v>
+      </c>
+      <c r="B146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146">
+        <v>9</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+      <c r="E146">
+        <v>104109</v>
+      </c>
+      <c r="F146">
+        <v>75</v>
+      </c>
+      <c r="G146">
+        <v>1.361118285403356E-5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>20231103</v>
+      </c>
+      <c r="B147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147">
+        <v>9</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>104109</v>
+      </c>
+      <c r="F147">
+        <v>50</v>
+      </c>
+      <c r="G147">
+        <v>3.1925723400807161E-6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>20231103</v>
+      </c>
+      <c r="B148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148">
+        <v>12</v>
+      </c>
+      <c r="D148">
+        <v>3.5</v>
+      </c>
+      <c r="E148">
+        <v>104109</v>
+      </c>
+      <c r="F148">
+        <v>75</v>
+      </c>
+      <c r="G148">
+        <v>2.650806886486381E-6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>20231102</v>
+      </c>
+      <c r="B149" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149">
+        <v>5</v>
+      </c>
+      <c r="D149">
+        <v>2.75</v>
+      </c>
+      <c r="E149">
+        <v>104109</v>
+      </c>
+      <c r="F149">
+        <v>50</v>
+      </c>
+      <c r="G149">
+        <v>1.573533210686542E-6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>20231103</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150">
+        <v>13</v>
+      </c>
+      <c r="D150">
+        <v>4</v>
+      </c>
+      <c r="E150">
+        <v>104109</v>
+      </c>
+      <c r="F150">
+        <v>25</v>
+      </c>
+      <c r="G150">
+        <v>1.039344730472803E-8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>20231102</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151">
+        <v>8</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
+      <c r="E151">
+        <v>104109</v>
+      </c>
+      <c r="F151">
+        <v>50</v>
+      </c>
+      <c r="G151">
+        <v>3.8513528167503399E-6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>20231103</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152">
+        <v>13</v>
+      </c>
+      <c r="D152">
+        <v>4</v>
+      </c>
+      <c r="E152">
+        <v>104109</v>
+      </c>
+      <c r="F152">
+        <v>50</v>
+      </c>
+      <c r="G152">
+        <v>1.61784792681581E-7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>20231102</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153">
+        <v>5</v>
+      </c>
+      <c r="D153">
+        <v>2.75</v>
+      </c>
+      <c r="E153">
+        <v>104109</v>
+      </c>
+      <c r="F153">
+        <v>25</v>
+      </c>
+      <c r="G153">
+        <v>1.882017574477846E-7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>20231103</v>
+      </c>
+      <c r="B154" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154">
+        <v>9</v>
+      </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
+      <c r="E154">
+        <v>104109</v>
+      </c>
+      <c r="F154">
+        <v>25</v>
+      </c>
+      <c r="G154">
+        <v>3.6456022431061222E-7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>20231102</v>
+      </c>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155">
+        <v>4</v>
+      </c>
+      <c r="D155">
+        <v>2.75</v>
+      </c>
+      <c r="E155">
+        <v>104109</v>
+      </c>
+      <c r="F155">
+        <v>75</v>
+      </c>
+      <c r="G155">
+        <v>1.7344778028377969E-5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>20231102</v>
+      </c>
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156">
+        <v>8</v>
+      </c>
+      <c r="D156">
+        <v>3</v>
+      </c>
+      <c r="E156">
+        <v>104109</v>
+      </c>
+      <c r="F156">
+        <v>25</v>
+      </c>
+      <c r="G156">
+        <v>4.3250521234204582E-7</v>
       </c>
     </row>
   </sheetData>
